--- a/data/trans_orig/Q23_tabaco_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco_R2-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>48279</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37459</v>
+        <v>37147</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60099</v>
+        <v>60025</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3663692883814474</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2842573231499376</v>
+        <v>0.2818901572838663</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4560632801161832</v>
+        <v>0.4555037261729765</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -765,19 +765,19 @@
         <v>19534</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11422</v>
+        <v>11959</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28689</v>
+        <v>27961</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2536111461310738</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1482926073698261</v>
+        <v>0.1552670665340253</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3724659586715871</v>
+        <v>0.3630178764986724</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -786,19 +786,19 @@
         <v>67813</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54342</v>
+        <v>53582</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82905</v>
+        <v>81220</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3247744317898287</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2602582240267292</v>
+        <v>0.256616129144511</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3970526295883065</v>
+        <v>0.38898112152077</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>83499</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71679</v>
+        <v>71753</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>94319</v>
+        <v>94631</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6336307116185526</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5439367198838169</v>
+        <v>0.5444962738270236</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7157426768500625</v>
+        <v>0.7181098427161339</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -836,19 +836,19 @@
         <v>57490</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48335</v>
+        <v>49063</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65602</v>
+        <v>65065</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7463888538689262</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6275340413284137</v>
+        <v>0.6369821235013278</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8517073926301739</v>
+        <v>0.8447329334659748</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>136</v>
@@ -857,19 +857,19 @@
         <v>140988</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>125896</v>
+        <v>127581</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>154459</v>
+        <v>155219</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6752255682101713</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.602947370411694</v>
+        <v>0.6110188784792301</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.739741775973271</v>
+        <v>0.7433838708554892</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>110115</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>94307</v>
+        <v>94617</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>127524</v>
+        <v>128553</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4152586558441285</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3556470456848677</v>
+        <v>0.356813476944594</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4809107433081509</v>
+        <v>0.4847932619932362</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -982,19 +982,19 @@
         <v>37085</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27998</v>
+        <v>28127</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47016</v>
+        <v>48678</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2774472638938202</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2094604242001258</v>
+        <v>0.2104242384293933</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3517459284531801</v>
+        <v>0.3641779530033096</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>144</v>
@@ -1003,19 +1003,19 @@
         <v>147200</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>129413</v>
+        <v>127389</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>168655</v>
+        <v>165920</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3690725581083529</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3244759578712267</v>
+        <v>0.3194016077346191</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4228666758233916</v>
+        <v>0.4160105180120768</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>155056</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>137647</v>
+        <v>136618</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>170864</v>
+        <v>170554</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5847413441558714</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5190892566918491</v>
+        <v>0.5152067380067639</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6443529543151323</v>
+        <v>0.6431865230554059</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>94</v>
@@ -1053,19 +1053,19 @@
         <v>96581</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>86650</v>
+        <v>84988</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>105668</v>
+        <v>105539</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7225527361061798</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6482540715468198</v>
+        <v>0.6358220469966902</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7905395757998741</v>
+        <v>0.7895757615706067</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>236</v>
@@ -1074,19 +1074,19 @@
         <v>251637</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>230182</v>
+        <v>232917</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>269424</v>
+        <v>271448</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6309274418916471</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5771333241766086</v>
+        <v>0.5839894819879233</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6755240421287733</v>
+        <v>0.6805983922653811</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>68048</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55459</v>
+        <v>55182</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80807</v>
+        <v>80394</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3989090499859016</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3251123179650068</v>
+        <v>0.3234873710296226</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4737024022834994</v>
+        <v>0.4712814921478859</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1199,19 +1199,19 @@
         <v>25785</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17733</v>
+        <v>17596</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34524</v>
+        <v>35265</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2592669901747859</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.178303926315811</v>
+        <v>0.1769238020972466</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3471436008452216</v>
+        <v>0.3545927215819701</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -1220,19 +1220,19 @@
         <v>93833</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>78025</v>
+        <v>79392</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108940</v>
+        <v>110824</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3474798799760963</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2889413818171566</v>
+        <v>0.2940029715388845</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.403425718033458</v>
+        <v>0.4104016811327723</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>102537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89778</v>
+        <v>90191</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>115126</v>
+        <v>115403</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6010909500140984</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5262975977165003</v>
+        <v>0.5287185078521141</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6748876820349933</v>
+        <v>0.6765126289703773</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>73</v>
@@ -1270,19 +1270,19 @@
         <v>73668</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>64929</v>
+        <v>64188</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>81720</v>
+        <v>81857</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7407330098252142</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6528563991547786</v>
+        <v>0.6454072784180303</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.821696073684189</v>
+        <v>0.8230761979027535</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>175</v>
@@ -1291,19 +1291,19 @@
         <v>176205</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>161098</v>
+        <v>159214</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>192013</v>
+        <v>190646</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6525201200239037</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5965742819665423</v>
+        <v>0.5895983188672278</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7110586181828434</v>
+        <v>0.7059970284611157</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>62629</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49872</v>
+        <v>50575</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75192</v>
+        <v>76236</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.307106376375704</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2445518731408348</v>
+        <v>0.2480002561975497</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3687076996265047</v>
+        <v>0.3738273223132224</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -1416,19 +1416,19 @@
         <v>26600</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18218</v>
+        <v>18693</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35864</v>
+        <v>36442</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2065352391969698</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1414544845592931</v>
+        <v>0.145137674872366</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2784654651472203</v>
+        <v>0.282955620925559</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -1437,19 +1437,19 @@
         <v>89229</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73773</v>
+        <v>75134</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106244</v>
+        <v>105102</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2681769946889536</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2217220658578179</v>
+        <v>0.225814024903902</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3193131398662663</v>
+        <v>0.3158825429764352</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>141304</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>128741</v>
+        <v>127697</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>154061</v>
+        <v>153358</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.692893623624296</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6312923003734953</v>
+        <v>0.6261726776867776</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7554481268591652</v>
+        <v>0.7519997438024509</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>104</v>
@@ -1487,19 +1487,19 @@
         <v>102192</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>92928</v>
+        <v>92350</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>110574</v>
+        <v>110099</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7934647608030302</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7215345348527799</v>
+        <v>0.7170443790744411</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.858545515440707</v>
+        <v>0.8548623251276339</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>246</v>
@@ -1508,19 +1508,19 @@
         <v>243497</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>226482</v>
+        <v>227624</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>258953</v>
+        <v>257592</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7318230053110465</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6806868601337334</v>
+        <v>0.6841174570235645</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7782779341421819</v>
+        <v>0.7741859750960979</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>22904</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14700</v>
+        <v>15075</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31442</v>
+        <v>31616</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2293080557785745</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1471659876572314</v>
+        <v>0.1509277631628544</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3147810365902162</v>
+        <v>0.3165302173263271</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -1633,19 +1633,19 @@
         <v>21620</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14546</v>
+        <v>14226</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31060</v>
+        <v>30187</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2900629952389255</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.195152060609363</v>
+        <v>0.1908520277594463</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4167031468040644</v>
+        <v>0.4049910436258196</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -1654,19 +1654,19 @@
         <v>44525</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34081</v>
+        <v>34027</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56172</v>
+        <v>56707</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2552708964057634</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1953959077615122</v>
+        <v>0.1950842879522784</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3220481387731914</v>
+        <v>0.3251157165059889</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>76980</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>68442</v>
+        <v>68268</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>85184</v>
+        <v>84809</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7706919442214254</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6852189634097842</v>
+        <v>0.6834697826736721</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8528340123427687</v>
+        <v>0.8490722368371455</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -1704,19 +1704,19 @@
         <v>52917</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>43477</v>
+        <v>44350</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59991</v>
+        <v>60311</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7099370047610746</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5832968531959349</v>
+        <v>0.5950089563741805</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8048479393906357</v>
+        <v>0.8091479722405539</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>128</v>
@@ -1725,19 +1725,19 @@
         <v>129896</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>118249</v>
+        <v>117714</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>140340</v>
+        <v>140394</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7447291035942366</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6779518612268086</v>
+        <v>0.6748842834940109</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8046040922384879</v>
+        <v>0.8049157120477216</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>63115</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50298</v>
+        <v>50521</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74793</v>
+        <v>75877</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4042249286614243</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3221338384503543</v>
+        <v>0.3235638024100439</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4790148771909866</v>
+        <v>0.4859591350292624</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1850,19 +1850,19 @@
         <v>22943</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15269</v>
+        <v>15624</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30990</v>
+        <v>31438</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2984325532751608</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1986082591785509</v>
+        <v>0.2032283891517805</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4031012251485125</v>
+        <v>0.4089291312706061</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>83</v>
@@ -1871,19 +1871,19 @@
         <v>86058</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71896</v>
+        <v>71005</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100948</v>
+        <v>101722</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3693212847055137</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3085457508365838</v>
+        <v>0.3047211250334712</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4332224342700536</v>
+        <v>0.4365446387912507</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>93024</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>81346</v>
+        <v>80262</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>105841</v>
+        <v>105618</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5957750713385757</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5209851228090133</v>
+        <v>0.5140408649707375</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6778661615496455</v>
+        <v>0.6764361975899561</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>52</v>
@@ -1921,19 +1921,19 @@
         <v>53935</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45888</v>
+        <v>45440</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>61609</v>
+        <v>61254</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7015674467248393</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5968987748514876</v>
+        <v>0.5910708687293939</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8013917408214492</v>
+        <v>0.7967716108482193</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>145</v>
@@ -1942,19 +1942,19 @@
         <v>146959</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>132069</v>
+        <v>131295</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>161121</v>
+        <v>162012</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6306787152944863</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5667775657299462</v>
+        <v>0.5634553612087492</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6914542491634161</v>
+        <v>0.6952788749665287</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>106518</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>91000</v>
+        <v>90743</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>122572</v>
+        <v>124118</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3582524701180835</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3060616964742672</v>
+        <v>0.3051959653659973</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4122471766962502</v>
+        <v>0.4174459570019041</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -2067,19 +2067,19 @@
         <v>51930</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40038</v>
+        <v>40895</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>64323</v>
+        <v>65829</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.278623704005954</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2148164892048701</v>
+        <v>0.2194159878333967</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3451157216029765</v>
+        <v>0.3531943861497172</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>160</v>
@@ -2088,19 +2088,19 @@
         <v>158448</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>137294</v>
+        <v>136478</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>179496</v>
+        <v>178846</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3275700456587484</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2838368144672347</v>
+        <v>0.282149574113708</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3710827384469763</v>
+        <v>0.3697401567676898</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>190808</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>174754</v>
+        <v>173208</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>206326</v>
+        <v>206583</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6417475298819165</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5877528233037498</v>
+        <v>0.5825540429980958</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6939383035257328</v>
+        <v>0.6948040346340024</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>130</v>
@@ -2138,19 +2138,19 @@
         <v>134451</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>122058</v>
+        <v>120552</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>146343</v>
+        <v>145486</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.721376295994046</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6548842783970236</v>
+        <v>0.6468056138502828</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.78518351079513</v>
+        <v>0.7805840121666033</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>316</v>
@@ -2159,19 +2159,19 @@
         <v>325260</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>304212</v>
+        <v>304862</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>346414</v>
+        <v>347230</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6724299543412516</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6289172615530237</v>
+        <v>0.6302598432323102</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7161631855327654</v>
+        <v>0.7178504258862921</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>126652</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>107671</v>
+        <v>107600</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>144407</v>
+        <v>144280</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3248323334832499</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2761508832985261</v>
+        <v>0.2759681169280257</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3703684927292717</v>
+        <v>0.3700445603118069</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>55</v>
@@ -2284,19 +2284,19 @@
         <v>56520</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44123</v>
+        <v>44456</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70655</v>
+        <v>70420</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2568523709502384</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2005141255913749</v>
+        <v>0.2020259012418553</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3210870364127947</v>
+        <v>0.3200190394173413</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>181</v>
@@ -2305,19 +2305,19 @@
         <v>183172</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>161213</v>
+        <v>160744</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>207501</v>
+        <v>207039</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3003074900135449</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2643058254037201</v>
+        <v>0.2635363412267667</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3401947051175713</v>
+        <v>0.3394366089587237</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>263248</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>245493</v>
+        <v>245620</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>282229</v>
+        <v>282300</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6751676665167501</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6296315072707278</v>
+        <v>0.6299554396881932</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7238491167014736</v>
+        <v>0.7240318830719744</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>155</v>
@@ -2355,19 +2355,19 @@
         <v>163529</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>149394</v>
+        <v>149629</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>175926</v>
+        <v>175593</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7431476290497616</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6789129635872053</v>
+        <v>0.6799809605826586</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7994858744086251</v>
+        <v>0.7979740987581446</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>411</v>
@@ -2376,19 +2376,19 @@
         <v>426777</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>402448</v>
+        <v>402910</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>448736</v>
+        <v>449205</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6996925099864552</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6598052948824286</v>
+        <v>0.6605633910412763</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7356941745962798</v>
+        <v>0.7364636587732332</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>608261</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>568445</v>
+        <v>571303</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>647368</v>
+        <v>650273</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3547294652846681</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3315093644701953</v>
+        <v>0.3331761470086834</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3775364533622764</v>
+        <v>0.3792304801441185</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>261</v>
@@ -2501,19 +2501,19 @@
         <v>262018</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>235758</v>
+        <v>236129</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>291036</v>
+        <v>290343</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2628643810424137</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2365197931420601</v>
+        <v>0.2368917359900097</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2919754152445539</v>
+        <v>0.2912809067324123</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>861</v>
@@ -2522,19 +2522,19 @@
         <v>870279</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>821605</v>
+        <v>819530</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>920608</v>
+        <v>919690</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3209586946082496</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3030077557531237</v>
+        <v>0.3022428051126271</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3395202570995963</v>
+        <v>0.3391815946001931</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1106456</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1067349</v>
+        <v>1064444</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1146272</v>
+        <v>1143414</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6452705347153319</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6224635466377236</v>
+        <v>0.6207695198558811</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6684906355298047</v>
+        <v>0.6668238529913163</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>711</v>
@@ -2572,19 +2572,19 @@
         <v>734763</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>705745</v>
+        <v>706438</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>761023</v>
+        <v>760652</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7371356189575863</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7080245847554462</v>
+        <v>0.7087190932675876</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7634802068579399</v>
+        <v>0.7631082640099904</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1793</v>
@@ -2593,19 +2593,19 @@
         <v>1841218</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1790889</v>
+        <v>1791807</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1889892</v>
+        <v>1891967</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6790413053917503</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6604797429004037</v>
+        <v>0.6608184053998069</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6969922442468763</v>
+        <v>0.6977571948873729</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>71524</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58144</v>
+        <v>57545</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>85978</v>
+        <v>86601</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3948105608088468</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3209522068079526</v>
+        <v>0.3176448107620861</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4745926783025013</v>
+        <v>0.4780319873476374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -2962,19 +2962,19 @@
         <v>42015</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30931</v>
+        <v>30261</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53690</v>
+        <v>54509</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3314104548052482</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2439757121436955</v>
+        <v>0.2386975433570394</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4234988176476088</v>
+        <v>0.4299622991199274</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>102</v>
@@ -2983,19 +2983,19 @@
         <v>113539</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>96498</v>
+        <v>95129</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132852</v>
+        <v>131573</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3687089879928126</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3133682873861373</v>
+        <v>0.3089241024403886</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4314246344385568</v>
+        <v>0.4272740424850752</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>109637</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>95183</v>
+        <v>94560</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>123017</v>
+        <v>123616</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6051894391911532</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5254073216974987</v>
+        <v>0.5219680126523626</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6790477931920473</v>
+        <v>0.6823551892379138</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -3033,19 +3033,19 @@
         <v>84762</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>73087</v>
+        <v>72268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>95846</v>
+        <v>96516</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6685895451947518</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5765011823523913</v>
+        <v>0.5700377008800712</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7560242878563046</v>
+        <v>0.7613024566429598</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>175</v>
@@ -3054,19 +3054,19 @@
         <v>194398</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>175085</v>
+        <v>176364</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>211439</v>
+        <v>212808</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6312910120071874</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5685753655614431</v>
+        <v>0.5727259575149249</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6866317126138624</v>
+        <v>0.6910758975596115</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>138225</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>118845</v>
+        <v>120247</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>155834</v>
+        <v>159175</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4299292261367993</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3696521999849972</v>
+        <v>0.3740119544043606</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4846994770557893</v>
+        <v>0.4950907746131658</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -3179,19 +3179,19 @@
         <v>63530</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50025</v>
+        <v>49681</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77154</v>
+        <v>78463</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3100576033886774</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2441485891992724</v>
+        <v>0.2424713143431231</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3765504335370321</v>
+        <v>0.3829405696954402</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>188</v>
@@ -3200,19 +3200,19 @@
         <v>201754</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>179519</v>
+        <v>179126</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>226459</v>
+        <v>226285</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.383270491928699</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3410301652062678</v>
+        <v>0.340284090747578</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4302016819892644</v>
+        <v>0.4298701723372158</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>183281</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>165672</v>
+        <v>162331</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>202661</v>
+        <v>201259</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5700707738632006</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5153005229442107</v>
+        <v>0.5049092253868344</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6303478000150028</v>
+        <v>0.6259880455956396</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>128</v>
@@ -3250,19 +3250,19 @@
         <v>141366</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>127742</v>
+        <v>126433</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>154871</v>
+        <v>155215</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6899423966113226</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6234495664629686</v>
+        <v>0.6170594303045599</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7558514108007279</v>
+        <v>0.7575286856568769</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>293</v>
@@ -3271,19 +3271,19 @@
         <v>324648</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>299943</v>
+        <v>300117</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>346883</v>
+        <v>347276</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.616729508071301</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5697983180107355</v>
+        <v>0.5701298276627842</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6589698347937322</v>
+        <v>0.659715909252422</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>72852</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59672</v>
+        <v>59084</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87334</v>
+        <v>87872</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3486282299167052</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2855541329985162</v>
+        <v>0.2827414544706844</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4179290377861911</v>
+        <v>0.4205063343860954</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -3396,19 +3396,19 @@
         <v>30708</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21420</v>
+        <v>21453</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43198</v>
+        <v>41045</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2564993887984889</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1789180928809524</v>
+        <v>0.1791892629525744</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3608230960877229</v>
+        <v>0.3428438666333813</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>96</v>
@@ -3417,19 +3417,19 @@
         <v>103560</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87601</v>
+        <v>86705</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>121719</v>
+        <v>122398</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3150716212727429</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2665184006374335</v>
+        <v>0.2637915758086614</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3703185676405071</v>
+        <v>0.3723851277111279</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>136116</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>121634</v>
+        <v>121096</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>149296</v>
+        <v>149884</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6513717700832948</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5820709622138086</v>
+        <v>0.5794936656139048</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7144458670014837</v>
+        <v>0.7172585455293157</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>81</v>
@@ -3467,19 +3467,19 @@
         <v>89012</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>76522</v>
+        <v>78675</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>98300</v>
+        <v>98267</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7435006112015111</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6391769039122769</v>
+        <v>0.6571561333666187</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8210819071190476</v>
+        <v>0.8208107370474257</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>217</v>
@@ -3488,19 +3488,19 @@
         <v>225127</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>206968</v>
+        <v>206289</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>241086</v>
+        <v>241982</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6849283787272572</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6296814323594929</v>
+        <v>0.6276148722888722</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7334815993625665</v>
+        <v>0.7362084241913387</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>71659</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56667</v>
+        <v>56787</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87263</v>
+        <v>88677</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3405110259230129</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2692730884882802</v>
+        <v>0.2698420406980914</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4146594001824657</v>
+        <v>0.4213780306811004</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -3613,19 +3613,19 @@
         <v>25269</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16535</v>
+        <v>16921</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37606</v>
+        <v>36660</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1733934263519452</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1134608838745858</v>
+        <v>0.1161134240312352</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2580535018098817</v>
+        <v>0.2515614353619986</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -3634,19 +3634,19 @@
         <v>96928</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79181</v>
+        <v>79943</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>114369</v>
+        <v>114994</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2721346246092194</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2223078996893701</v>
+        <v>0.224448109800077</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3211032651419425</v>
+        <v>0.3228568525749049</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>138787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>123183</v>
+        <v>121769</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>153779</v>
+        <v>153659</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.659488974076987</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5853405998175345</v>
+        <v>0.5786219693188995</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7307269115117198</v>
+        <v>0.7301579593019086</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>119</v>
@@ -3684,19 +3684,19 @@
         <v>120461</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>108124</v>
+        <v>109070</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>129195</v>
+        <v>128809</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8266065736480548</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7419464981901182</v>
+        <v>0.7484385646380018</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8865391161254143</v>
+        <v>0.883886575968765</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>248</v>
@@ -3705,19 +3705,19 @@
         <v>259247</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>241806</v>
+        <v>241181</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>276994</v>
+        <v>276232</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7278653753907806</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6788967348580575</v>
+        <v>0.6771431474250951</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7776921003106299</v>
+        <v>0.775551890199923</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>56171</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43694</v>
+        <v>44669</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68181</v>
+        <v>69058</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4043700292948199</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3145480643225644</v>
+        <v>0.3215682024074278</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4908237253872946</v>
+        <v>0.4971386019770559</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -3830,19 +3830,19 @@
         <v>30203</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20917</v>
+        <v>21860</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39409</v>
+        <v>40044</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3272622098103258</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2266402808800326</v>
+        <v>0.2368589691792605</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.427005945841908</v>
+        <v>0.4338884594615754</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -3851,19 +3851,19 @@
         <v>86375</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71890</v>
+        <v>73113</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100849</v>
+        <v>101902</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3735901622103751</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3109371123058502</v>
+        <v>0.3162274616185206</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4361939059161009</v>
+        <v>0.4407485486529688</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>82740</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70730</v>
+        <v>69853</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95217</v>
+        <v>94242</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5956299707051801</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5091762746127052</v>
+        <v>0.5028613980229442</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6854519356774356</v>
+        <v>0.6784317975925721</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>60</v>
@@ -3901,19 +3901,19 @@
         <v>62088</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52882</v>
+        <v>52247</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71374</v>
+        <v>70431</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6727377901896742</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5729940541580919</v>
+        <v>0.5661115405384264</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7733597191199669</v>
+        <v>0.7631410308207397</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>134</v>
@@ -3922,19 +3922,19 @@
         <v>144828</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>130354</v>
+        <v>129301</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>159313</v>
+        <v>158090</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.626409837789625</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.563806094083897</v>
+        <v>0.5592514513470314</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6890628876941484</v>
+        <v>0.6837725383814796</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>60976</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47848</v>
+        <v>48211</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>73060</v>
+        <v>73231</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3696393313821929</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2900568500243262</v>
+        <v>0.2922539595926693</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4428890197818822</v>
+        <v>0.4439293441602683</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -4047,19 +4047,19 @@
         <v>25402</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17699</v>
+        <v>17620</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34435</v>
+        <v>34879</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2950144435768879</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.205554387264973</v>
+        <v>0.2046333734170862</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3999280297513593</v>
+        <v>0.4050845506333247</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>84</v>
@@ -4068,19 +4068,19 @@
         <v>86378</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>72241</v>
+        <v>72210</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>102228</v>
+        <v>101652</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3440466492160246</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2877367633105217</v>
+        <v>0.2876143492074675</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4071762722296481</v>
+        <v>0.4048843029317524</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>103986</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>91902</v>
+        <v>91731</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>117114</v>
+        <v>116751</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6303606686178072</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5571109802181177</v>
+        <v>0.5560706558397318</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7099431499756736</v>
+        <v>0.7077460404073308</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -4118,19 +4118,19 @@
         <v>60701</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>51668</v>
+        <v>51224</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68404</v>
+        <v>68483</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.704985556423112</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6000719702486403</v>
+        <v>0.5949154493666753</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.794445612735027</v>
+        <v>0.7953666265829138</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>160</v>
@@ -4139,19 +4139,19 @@
         <v>164687</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>148837</v>
+        <v>149413</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>178824</v>
+        <v>178855</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6559533507839754</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5928237277703519</v>
+        <v>0.5951156970682476</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7122632366894783</v>
+        <v>0.7123856507925326</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>146673</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>127539</v>
+        <v>125916</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>166866</v>
+        <v>168309</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3543699352458574</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3081411907973878</v>
+        <v>0.304219562320794</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4031573766451786</v>
+        <v>0.4066446563328163</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -4264,19 +4264,19 @@
         <v>76932</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63226</v>
+        <v>63393</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>92942</v>
+        <v>92563</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2824426925472087</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2321239538122702</v>
+        <v>0.2327380127179262</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3412210356391453</v>
+        <v>0.3398304388477997</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>211</v>
@@ -4285,19 +4285,19 @@
         <v>223605</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>200083</v>
+        <v>197285</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>250123</v>
+        <v>250177</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3258223131174966</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2915475749609796</v>
+        <v>0.2874700051258229</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3644621739675447</v>
+        <v>0.3645408766559008</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>267225</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>247032</v>
+        <v>245589</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>286359</v>
+        <v>287982</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6456300647541426</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5968426233548213</v>
+        <v>0.5933553436671837</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6918588092026121</v>
+        <v>0.6957804376792061</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>178</v>
@@ -4335,19 +4335,19 @@
         <v>195449</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>179439</v>
+        <v>179818</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>209155</v>
+        <v>208988</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7175573074527913</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6587789643608547</v>
+        <v>0.6601695611522</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7678760461877298</v>
+        <v>0.7672619872820733</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>425</v>
@@ -4356,19 +4356,19 @@
         <v>462675</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>436157</v>
+        <v>436103</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>486197</v>
+        <v>488995</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6741776868825035</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6355378260324553</v>
+        <v>0.6354591233440994</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7084524250390204</v>
+        <v>0.7125299948741772</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>112058</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>94710</v>
+        <v>94286</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>131059</v>
+        <v>131410</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2829979168616341</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2391862542380858</v>
+        <v>0.2381167918835539</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3309846214310531</v>
+        <v>0.331871743009002</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -4481,19 +4481,19 @@
         <v>69600</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55578</v>
+        <v>55460</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>85560</v>
+        <v>85692</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2590942734449415</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2068939455150043</v>
+        <v>0.2064561551688459</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3185061919615869</v>
+        <v>0.3189990037657348</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>170</v>
@@ -4502,19 +4502,19 @@
         <v>181658</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>158914</v>
+        <v>158597</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>204347</v>
+        <v>204396</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2733360971788849</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2391136890122943</v>
+        <v>0.2386364168076665</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3074759404818191</v>
+        <v>0.3075497522148067</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>283908</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>264907</v>
+        <v>264556</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>301256</v>
+        <v>301680</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7170020831383659</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6690153785689467</v>
+        <v>0.6681282569909979</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7608137457619132</v>
+        <v>0.7618832081164453</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>181</v>
@@ -4552,19 +4552,19 @@
         <v>199028</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>183068</v>
+        <v>182936</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>213050</v>
+        <v>213168</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7409057265550585</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6814938080384132</v>
+        <v>0.6810009962342652</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7931060544849964</v>
+        <v>0.793543844831154</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>437</v>
@@ -4573,19 +4573,19 @@
         <v>482937</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>460248</v>
+        <v>460199</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>505681</v>
+        <v>505998</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.726663902821115</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6925240595181809</v>
+        <v>0.6924502477851932</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7608863109877056</v>
+        <v>0.7613635831923334</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>730139</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>688951</v>
+        <v>688131</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>780981</v>
+        <v>776871</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3586464278700456</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3384149496835183</v>
+        <v>0.3380118576919929</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3836200867741154</v>
+        <v>0.3816015734478762</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>331</v>
@@ -4698,19 +4698,19 @@
         <v>363659</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>331788</v>
+        <v>330483</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>397581</v>
+        <v>398087</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2762258851911721</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2520175881748818</v>
+        <v>0.2510263389004352</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3019926408243084</v>
+        <v>0.302376772754287</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1017</v>
@@ -4719,19 +4719,19 @@
         <v>1093797</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1042782</v>
+        <v>1036879</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1156548</v>
+        <v>1152042</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3262783850955205</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3110605712213123</v>
+        <v>0.3092996203072529</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3449969312969512</v>
+        <v>0.3436525543666667</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1305679</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1254837</v>
+        <v>1258947</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1346867</v>
+        <v>1347687</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6413535721299544</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6163799132258848</v>
+        <v>0.6183984265521237</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6615850503164817</v>
+        <v>0.661988142308007</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>878</v>
@@ -4769,19 +4769,19 @@
         <v>952867</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>918945</v>
+        <v>918439</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>984738</v>
+        <v>986043</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7237741148088279</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.698007359175691</v>
+        <v>0.6976232272457131</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.747982411825118</v>
+        <v>0.7489736610995649</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2089</v>
@@ -4790,19 +4790,19 @@
         <v>2258547</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2195796</v>
+        <v>2200302</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2309562</v>
+        <v>2315465</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6737216149044795</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6550030687030488</v>
+        <v>0.6563474456333334</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6889394287786875</v>
+        <v>0.6907003796927471</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>91194</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77111</v>
+        <v>76507</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>105080</v>
+        <v>104445</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5183588670408588</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4383103380620422</v>
+        <v>0.4348753595230679</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5972859903044678</v>
+        <v>0.5936757145736121</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -5159,19 +5159,19 @@
         <v>43398</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33859</v>
+        <v>32893</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54515</v>
+        <v>55988</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3430878693964883</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2676781364246975</v>
+        <v>0.2600419727555555</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.430972355493641</v>
+        <v>0.4426237460483134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>126</v>
@@ -5180,19 +5180,19 @@
         <v>134592</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>117023</v>
+        <v>117705</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>154143</v>
+        <v>153574</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4450491834286733</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3869544544774101</v>
+        <v>0.3892076933602138</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5096981340989856</v>
+        <v>0.5078156450282888</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>84735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70849</v>
+        <v>71484</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98818</v>
+        <v>99422</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4816411329591412</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4027140096955322</v>
+        <v>0.4063242854263878</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5616896619379578</v>
+        <v>0.5651246404769322</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>81</v>
@@ -5230,19 +5230,19 @@
         <v>83094</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71977</v>
+        <v>70504</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>92633</v>
+        <v>93599</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6569121306035117</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5690276445063589</v>
+        <v>0.5573762539516869</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7323218635753024</v>
+        <v>0.7399580272444445</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>158</v>
@@ -5251,19 +5251,19 @@
         <v>167829</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>148278</v>
+        <v>148847</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>185398</v>
+        <v>184716</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5549508165713267</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4903018659010144</v>
+        <v>0.4921843549717112</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6130455455225898</v>
+        <v>0.6107923066397862</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>90730</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75278</v>
+        <v>74891</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>105640</v>
+        <v>105524</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3223649861737422</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2674628150061669</v>
+        <v>0.2660907055296164</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3753401207581468</v>
+        <v>0.37492835764317</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -5376,19 +5376,19 @@
         <v>47464</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36271</v>
+        <v>36379</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59048</v>
+        <v>60098</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2717399073043128</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.207660569412006</v>
+        <v>0.2082769782948856</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3380591956980008</v>
+        <v>0.3440699704728019</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>133</v>
@@ -5397,19 +5397,19 @@
         <v>138194</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>120077</v>
+        <v>119547</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>160262</v>
+        <v>160144</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3029784467874544</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2632578252483956</v>
+        <v>0.2620968506307475</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3513602287460231</v>
+        <v>0.3511029745688317</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>190721</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>175811</v>
+        <v>175927</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>206173</v>
+        <v>206560</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6776350138262579</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6246598792418532</v>
+        <v>0.62507164235683</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7325371849938331</v>
+        <v>0.7339092944703837</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>120</v>
@@ -5447,19 +5447,19 @@
         <v>127203</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>115619</v>
+        <v>114569</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>138396</v>
+        <v>138288</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7282600926956873</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6619408043019998</v>
+        <v>0.6559300295271981</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7923394305879943</v>
+        <v>0.7917230217051144</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>299</v>
@@ -5468,19 +5468,19 @@
         <v>317924</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>295856</v>
+        <v>295974</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>336041</v>
+        <v>336571</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6970215532125456</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6486397712539769</v>
+        <v>0.6488970254311682</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7367421747516044</v>
+        <v>0.7379031493692525</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>49063</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39369</v>
+        <v>38232</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61129</v>
+        <v>61362</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3149728546055717</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2527426439879404</v>
+        <v>0.2454449017683225</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3924393524062474</v>
+        <v>0.3939314299670831</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -5593,19 +5593,19 @@
         <v>29484</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21093</v>
+        <v>20848</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39934</v>
+        <v>38400</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2798892395645995</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2002289873789079</v>
+        <v>0.1979100662319408</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3790919959015427</v>
+        <v>0.364528903576168</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -5614,19 +5614,19 @@
         <v>78547</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64105</v>
+        <v>63974</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94676</v>
+        <v>92793</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3008187953660688</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2455089253947083</v>
+        <v>0.2450096104586816</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3625907665431894</v>
+        <v>0.3553790209062795</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>106705</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>94639</v>
+        <v>94406</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>116399</v>
+        <v>117536</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6850271453944283</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6075606475937527</v>
+        <v>0.6060685700329169</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7472573560120598</v>
+        <v>0.7545550982316777</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>77</v>
@@ -5664,19 +5664,19 @@
         <v>75858</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>65408</v>
+        <v>66942</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>84249</v>
+        <v>84494</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7201107604354005</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6209080040984574</v>
+        <v>0.6354710964238325</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7997710126210922</v>
+        <v>0.8020899337680593</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>189</v>
@@ -5685,19 +5685,19 @@
         <v>182563</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>166434</v>
+        <v>168317</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>197005</v>
+        <v>197136</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6991812046339312</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6374092334568107</v>
+        <v>0.6446209790937211</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7544910746052916</v>
+        <v>0.7549903895413186</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>94412</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79485</v>
+        <v>78826</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>110244</v>
+        <v>109178</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4057507681493012</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3415989419780339</v>
+        <v>0.3387672668228769</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4737905707275931</v>
+        <v>0.4692086527790343</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -5810,19 +5810,19 @@
         <v>41890</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30775</v>
+        <v>31543</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54544</v>
+        <v>53966</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2676995629904558</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1966687575827541</v>
+        <v>0.2015759648099528</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3485602532386863</v>
+        <v>0.3448668580184627</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -5831,19 +5831,19 @@
         <v>136303</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>116351</v>
+        <v>118694</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>155554</v>
+        <v>156620</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3502408323111898</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2989749903485284</v>
+        <v>0.3049949924454816</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3997078523896707</v>
+        <v>0.4024470890720637</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>138273</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>122441</v>
+        <v>123507</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>153200</v>
+        <v>153859</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5942492318506988</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5262094292724072</v>
+        <v>0.5307913472209657</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6584010580219661</v>
+        <v>0.6612327331771229</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>108</v>
@@ -5881,19 +5881,19 @@
         <v>114593</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>101939</v>
+        <v>102517</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>125708</v>
+        <v>124940</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7323004370095442</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6514397467613137</v>
+        <v>0.6551331419815373</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.803331242417246</v>
+        <v>0.7984240351900471</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>239</v>
@@ -5902,19 +5902,19 @@
         <v>252865</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>233614</v>
+        <v>232548</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>272817</v>
+        <v>270474</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6497591676888103</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6002921476103292</v>
+        <v>0.5975529109279363</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7010250096514716</v>
+        <v>0.6950050075545182</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>37157</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26991</v>
+        <v>28021</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47931</v>
+        <v>48025</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3210032573810385</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2331771920887271</v>
+        <v>0.2420753862670601</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4140732894851147</v>
+        <v>0.414890223560516</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -6027,19 +6027,19 @@
         <v>20158</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13038</v>
+        <v>14118</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27888</v>
+        <v>28554</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2799189148214481</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1810500929577422</v>
+        <v>0.1960502277562796</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3872645855784232</v>
+        <v>0.3965019624695266</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -6048,19 +6048,19 @@
         <v>57315</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45304</v>
+        <v>46419</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69786</v>
+        <v>70869</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3052463631811447</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2412794162619048</v>
+        <v>0.2472156916980829</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3716632551820572</v>
+        <v>0.3774311934212037</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>78597</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>67823</v>
+        <v>67729</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>88763</v>
+        <v>87733</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6789967426189615</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5859267105148852</v>
+        <v>0.5851097764394839</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7668228079112723</v>
+        <v>0.7579246137329398</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -6098,19 +6098,19 @@
         <v>51856</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44126</v>
+        <v>43460</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58976</v>
+        <v>57896</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.720081085178552</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6127354144215768</v>
+        <v>0.6034980375304734</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8189499070422577</v>
+        <v>0.8039497722437204</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>132</v>
@@ -6119,19 +6119,19 @@
         <v>130452</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>117981</v>
+        <v>116898</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>142463</v>
+        <v>141348</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6947536368188554</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6283367448179428</v>
+        <v>0.6225688065787961</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7587205837380953</v>
+        <v>0.7527843083019169</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>38045</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28471</v>
+        <v>28820</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49465</v>
+        <v>49982</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2842704449114386</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2127343865191944</v>
+        <v>0.2153442453604144</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3696022858694654</v>
+        <v>0.3734591939898004</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -6244,19 +6244,19 @@
         <v>11988</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6676</v>
+        <v>6606</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19071</v>
+        <v>19460</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1361587357819759</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07582952043033445</v>
+        <v>0.07502745401110339</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2165977561533241</v>
+        <v>0.2210244808578967</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -6265,19 +6265,19 @@
         <v>50033</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38300</v>
+        <v>37828</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63338</v>
+        <v>61999</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2254970338780931</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1726137744352708</v>
+        <v>0.1704869478447791</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2854627966551332</v>
+        <v>0.2794264212343384</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>95789</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>84369</v>
+        <v>83852</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>105363</v>
+        <v>105014</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7157295550885614</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6303977141305346</v>
+        <v>0.6265408060101993</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7872656134808056</v>
+        <v>0.7846557546395855</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>74</v>
@@ -6315,19 +6315,19 @@
         <v>76058</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>68975</v>
+        <v>68586</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>81370</v>
+        <v>81440</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8638412642180241</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.783402243846676</v>
+        <v>0.7789755191421031</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.924170479569666</v>
+        <v>0.9249725459888966</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>168</v>
@@ -6336,19 +6336,19 @@
         <v>171847</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>158542</v>
+        <v>159881</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>183580</v>
+        <v>184052</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7745029661219069</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7145372033448667</v>
+        <v>0.7205735787656613</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8273862255647292</v>
+        <v>0.8295130521552209</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>103383</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>87340</v>
+        <v>86329</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>121834</v>
+        <v>121468</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3302496715484685</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2790019588833733</v>
+        <v>0.275772968898812</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3891898165760415</v>
+        <v>0.3880216151209021</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -6461,19 +6461,19 @@
         <v>57913</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46005</v>
+        <v>45288</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>73628</v>
+        <v>72547</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2324984737548318</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.184694361136895</v>
+        <v>0.1818150976889242</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2955889553394953</v>
+        <v>0.2912490178897116</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>147</v>
@@ -6482,19 +6482,19 @@
         <v>161295</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>139678</v>
+        <v>142495</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>185334</v>
+        <v>187930</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2869348510414956</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2484785474871499</v>
+        <v>0.2534893971671893</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3296978466230506</v>
+        <v>0.334316713432285</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>209661</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>191210</v>
+        <v>191576</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>225704</v>
+        <v>226715</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6697503284515316</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6108101834239584</v>
+        <v>0.6119783848790977</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7209980411166266</v>
+        <v>0.7242270311011878</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>180</v>
@@ -6532,19 +6532,19 @@
         <v>191175</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>175460</v>
+        <v>176541</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>203083</v>
+        <v>203800</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7675015262451681</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7044110446605046</v>
+        <v>0.7087509821102891</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8153056388631049</v>
+        <v>0.818184902311076</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>360</v>
@@ -6553,19 +6553,19 @@
         <v>400837</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>376798</v>
+        <v>374202</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>422454</v>
+        <v>419637</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7130651489585044</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6703021533769501</v>
+        <v>0.665683286567715</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7515214525128509</v>
+        <v>0.7465106028328108</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>136157</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>118559</v>
+        <v>117286</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>155690</v>
+        <v>153761</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3778217512270835</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.328988271339262</v>
+        <v>0.3254569039341901</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4320241867163956</v>
+        <v>0.4266697388903649</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>68</v>
@@ -6678,19 +6678,19 @@
         <v>71022</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57267</v>
+        <v>56968</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>88078</v>
+        <v>86846</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.260758617084731</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2102565208347902</v>
+        <v>0.2091563895273141</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3233794208982357</v>
+        <v>0.3188551507496594</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>195</v>
@@ -6699,19 +6699,19 @@
         <v>207179</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>184074</v>
+        <v>184699</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>230927</v>
+        <v>231053</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3274311483001854</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2909154381591563</v>
+        <v>0.2919018219347714</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3649620485938885</v>
+        <v>0.3651607303056558</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>224217</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>204684</v>
+        <v>206613</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>241815</v>
+        <v>243088</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6221782487729165</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5679758132836044</v>
+        <v>0.5733302611096351</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6710117286607381</v>
+        <v>0.6745430960658099</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>185</v>
@@ -6749,19 +6749,19 @@
         <v>201346</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>184290</v>
+        <v>185522</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>215101</v>
+        <v>215400</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.739241382915269</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6766205791017643</v>
+        <v>0.6811448492503406</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7897434791652098</v>
+        <v>0.7908436104726858</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>398</v>
@@ -6770,19 +6770,19 @@
         <v>425563</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>401815</v>
+        <v>401689</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>448668</v>
+        <v>448043</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6725688516998146</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6350379514061115</v>
+        <v>0.6348392696943442</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7090845618408437</v>
+        <v>0.7080981780652287</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>640141</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>598469</v>
+        <v>595616</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>685387</v>
+        <v>677675</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3618991790297297</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3383398466271505</v>
+        <v>0.3367269282517348</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3874787181217099</v>
+        <v>0.3831185004547458</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>316</v>
@@ -6895,19 +6895,19 @@
         <v>323318</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>289582</v>
+        <v>291002</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>352772</v>
+        <v>352543</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.259797178305558</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2326891972265206</v>
+        <v>0.2338306594577582</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.28346476470259</v>
+        <v>0.2832809334534369</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>921</v>
@@ -6916,19 +6916,19 @@
         <v>963459</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>913039</v>
+        <v>908196</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1015051</v>
+        <v>1018153</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3197313552168493</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3029991456309706</v>
+        <v>0.301391858180751</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3368526354897558</v>
+        <v>0.337882030448799</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>1128698</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1083452</v>
+        <v>1091164</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1170370</v>
+        <v>1173223</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6381008209702703</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.61252128187829</v>
+        <v>0.6168814995452543</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6616601533728496</v>
+        <v>0.6632730717482653</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>880</v>
@@ -6966,19 +6966,19 @@
         <v>921182</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>891728</v>
+        <v>891957</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>954918</v>
+        <v>953498</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.740202821694442</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.71653523529741</v>
+        <v>0.716719066546563</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7673108027734794</v>
+        <v>0.7661693405422418</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1943</v>
@@ -6987,19 +6987,19 @@
         <v>2049880</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1998288</v>
+        <v>1995186</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2100300</v>
+        <v>2105143</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6802686447831507</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6631473645102441</v>
+        <v>0.6621179695512009</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6970008543690294</v>
+        <v>0.698608141819249</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>51354</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40219</v>
+        <v>40066</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62325</v>
+        <v>61832</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4065624576651729</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3184106637082426</v>
+        <v>0.3171952191008549</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4934234655438752</v>
+        <v>0.4895202544611917</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -7356,19 +7356,19 @@
         <v>16770</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11617</v>
+        <v>11594</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23194</v>
+        <v>22646</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2129042788175628</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1474844759720552</v>
+        <v>0.14719519179695</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2944603466904135</v>
+        <v>0.287505225548648</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -7377,19 +7377,19 @@
         <v>68124</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55912</v>
+        <v>55639</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82082</v>
+        <v>80253</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3321805650323603</v>
+        <v>0.3321805650323604</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2726316994493192</v>
+        <v>0.2713042670565813</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4002439504856963</v>
+        <v>0.3913240836934339</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>74958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>63987</v>
+        <v>64480</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>86093</v>
+        <v>86246</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.593437542334827</v>
+        <v>0.5934375423348272</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5065765344561244</v>
+        <v>0.5104797455388081</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6815893362917573</v>
+        <v>0.6828047808991444</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>112</v>
@@ -7427,19 +7427,19 @@
         <v>61999</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55575</v>
+        <v>56123</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67152</v>
+        <v>67175</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.787095721182437</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7055396533095861</v>
+        <v>0.7124947744513525</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8525155240279448</v>
+        <v>0.8528048082030503</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>196</v>
@@ -7448,19 +7448,19 @@
         <v>136957</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>122999</v>
+        <v>124828</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>149169</v>
+        <v>149442</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6678194349676396</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5997560495143036</v>
+        <v>0.6086759163065661</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7273683005506808</v>
+        <v>0.7286957329434189</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>87977</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70445</v>
+        <v>71550</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>104738</v>
+        <v>106581</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3433314643324387</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.274913608744369</v>
+        <v>0.2792253684587447</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.408740940293666</v>
+        <v>0.4159327192550721</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -7573,19 +7573,19 @@
         <v>44921</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35361</v>
+        <v>34265</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55556</v>
+        <v>55079</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2659435792373399</v>
+        <v>0.2659435792373398</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2093452843647996</v>
+        <v>0.2028579584340272</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3289065991945604</v>
+        <v>0.3260832171262057</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>131</v>
@@ -7594,19 +7594,19 @@
         <v>132898</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>113258</v>
+        <v>113020</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>155508</v>
+        <v>153507</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3125858609814518</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.266390933418103</v>
+        <v>0.2658321330370827</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3657657824177294</v>
+        <v>0.3610601584753264</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>168268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>151507</v>
+        <v>149664</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>185800</v>
+        <v>184695</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6566685356675613</v>
+        <v>0.6566685356675612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5912590597063337</v>
+        <v>0.5840672807449278</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7250863912556306</v>
+        <v>0.7207746315412552</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>158</v>
@@ -7644,19 +7644,19 @@
         <v>123990</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>113355</v>
+        <v>113832</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>133550</v>
+        <v>134646</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7340564207626602</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6710934008054396</v>
+        <v>0.6739167828737944</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7906547156352004</v>
+        <v>0.7971420415659731</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>283</v>
@@ -7665,19 +7665,19 @@
         <v>292258</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>269648</v>
+        <v>271649</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>311898</v>
+        <v>312136</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6874141390185481</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6342342175822709</v>
+        <v>0.638939841524674</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7336090665818973</v>
+        <v>0.7341678669629177</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>72017</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60941</v>
+        <v>61276</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83369</v>
+        <v>83909</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5013622275214692</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4242516717394863</v>
+        <v>0.42658202198103</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.580391478903846</v>
+        <v>0.5841466922226545</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -7790,19 +7790,19 @@
         <v>26313</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19814</v>
+        <v>19805</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33996</v>
+        <v>34710</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2373748391979347</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1787505352088843</v>
+        <v>0.1786636323171786</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3066830598281267</v>
+        <v>0.3131256742066561</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -7811,19 +7811,19 @@
         <v>98330</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>85191</v>
+        <v>84312</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112533</v>
+        <v>112396</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3863765517313306</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3347481991752356</v>
+        <v>0.3312920864750163</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4421842167172924</v>
+        <v>0.4416454434548068</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>71626</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60274</v>
+        <v>59734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>82702</v>
+        <v>82367</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4986377724785309</v>
+        <v>0.4986377724785308</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4196085210961539</v>
+        <v>0.4158533077773456</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5757483282605137</v>
+        <v>0.5734179780189702</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>122</v>
@@ -7861,19 +7861,19 @@
         <v>84537</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>76854</v>
+        <v>76140</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>91036</v>
+        <v>91045</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7626251608020653</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6933169401718731</v>
+        <v>0.6868743257933441</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8212494647911157</v>
+        <v>0.8213363676828215</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>207</v>
@@ -7882,19 +7882,19 @@
         <v>156163</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>141960</v>
+        <v>142097</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>169302</v>
+        <v>170181</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6136234482686694</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5578157832827076</v>
+        <v>0.5583545565451932</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6652518008247646</v>
+        <v>0.6687079135249839</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>46464</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34577</v>
+        <v>33259</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60594</v>
+        <v>61368</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2369670767033256</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1763452971847653</v>
+        <v>0.1696233047951404</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3090342151297471</v>
+        <v>0.312979072141937</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -8007,19 +8007,19 @@
         <v>30747</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21657</v>
+        <v>21994</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43624</v>
+        <v>43273</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2169265705942348</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.152791831872095</v>
+        <v>0.155172661157431</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3077778458792084</v>
+        <v>0.3052974705232563</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -8028,19 +8028,19 @@
         <v>77211</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62032</v>
+        <v>62207</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96737</v>
+        <v>97035</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2285585749942339</v>
+        <v>0.2285585749942338</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1836272278961337</v>
+        <v>0.1841464185513979</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2863612075922983</v>
+        <v>0.2872422951893725</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>149612</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>135482</v>
+        <v>134708</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>161499</v>
+        <v>162817</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7630329232966743</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.690965784870253</v>
+        <v>0.6870209278580631</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8236547028152348</v>
+        <v>0.8303766952048595</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>143</v>
@@ -8078,19 +8078,19 @@
         <v>110992</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>98115</v>
+        <v>98466</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>120082</v>
+        <v>119745</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7830734294057652</v>
+        <v>0.7830734294057653</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6922221541207928</v>
+        <v>0.6947025294767439</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8472081681279048</v>
+        <v>0.8448273388425689</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>264</v>
@@ -8099,19 +8099,19 @@
         <v>260604</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>241078</v>
+        <v>240780</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>275783</v>
+        <v>275608</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7714414250057662</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7136387924077011</v>
+        <v>0.7127577048106274</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8163727721038663</v>
+        <v>0.815853581448602</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>14202</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8924</v>
+        <v>9353</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19515</v>
+        <v>20173</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2499622758717097</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1570628305532873</v>
+        <v>0.1646140847077412</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3434636025328018</v>
+        <v>0.3550598669643356</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -8224,19 +8224,19 @@
         <v>10933</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7198</v>
+        <v>7130</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15392</v>
+        <v>15769</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2666442438951086</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1755521868984841</v>
+        <v>0.1738843670407369</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3753676070207648</v>
+        <v>0.3845825363524432</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -8245,19 +8245,19 @@
         <v>25136</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18295</v>
+        <v>18667</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31552</v>
+        <v>31914</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2569549213097126</v>
+        <v>0.2569549213097125</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1870182712881881</v>
+        <v>0.1908256479964935</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.322542302989323</v>
+        <v>0.3262410279721176</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>42615</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>37302</v>
+        <v>36644</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47893</v>
+        <v>47464</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7500377241282903</v>
+        <v>0.7500377241282905</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6565363974671983</v>
+        <v>0.6449401330356643</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8429371694467127</v>
+        <v>0.835385915292259</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>68</v>
@@ -8295,19 +8295,19 @@
         <v>30071</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25612</v>
+        <v>25235</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33806</v>
+        <v>33874</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7333557561048916</v>
+        <v>0.7333557561048915</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6246323929792352</v>
+        <v>0.6154174636475568</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8244478131015159</v>
+        <v>0.8261156329592633</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>129</v>
@@ -8316,19 +8316,19 @@
         <v>72686</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>66270</v>
+        <v>65908</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>79527</v>
+        <v>79155</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7430450786902874</v>
+        <v>0.7430450786902876</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6774576970106767</v>
+        <v>0.6737589720278823</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8129817287118116</v>
+        <v>0.8091743520035065</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>50353</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41057</v>
+        <v>40631</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60059</v>
+        <v>59915</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4178326466181191</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3406937513781691</v>
+        <v>0.3371533217746125</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4983717425569316</v>
+        <v>0.4971706447893822</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -8441,19 +8441,19 @@
         <v>18690</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13166</v>
+        <v>13189</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25427</v>
+        <v>24966</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3095164747024809</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2180305075679561</v>
+        <v>0.2184174638000873</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4210709049600074</v>
+        <v>0.4134442273290362</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -8462,19 +8462,19 @@
         <v>69044</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>58782</v>
+        <v>57915</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81137</v>
+        <v>79523</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3816753187109017</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3249455431564066</v>
+        <v>0.3201546230126711</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4485251122725811</v>
+        <v>0.4396065040671747</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>70158</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>60452</v>
+        <v>60596</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>79454</v>
+        <v>79880</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.582167353381881</v>
+        <v>0.5821673533818809</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5016282574430684</v>
+        <v>0.5028293552106176</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.659306248621831</v>
+        <v>0.6628466782253875</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>69</v>
@@ -8512,19 +8512,19 @@
         <v>41696</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34959</v>
+        <v>35420</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47220</v>
+        <v>47197</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6904835252975189</v>
+        <v>0.6904835252975191</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5789290950399926</v>
+        <v>0.5865557726709634</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7819694924320438</v>
+        <v>0.7815825361999127</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>168</v>
@@ -8533,19 +8533,19 @@
         <v>111853</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>99760</v>
+        <v>101374</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>122115</v>
+        <v>122982</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6183246812890982</v>
+        <v>0.6183246812890983</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5514748877274188</v>
+        <v>0.5603934959328253</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6750544568435933</v>
+        <v>0.6798453769873289</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>121095</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>102404</v>
+        <v>101532</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>140663</v>
+        <v>140561</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3676477663960029</v>
+        <v>0.3676477663960028</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.31090244495265</v>
+        <v>0.3082524819125336</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4270574571238152</v>
+        <v>0.4267459667339291</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>87</v>
@@ -8658,19 +8658,19 @@
         <v>73725</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59971</v>
+        <v>60517</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>88135</v>
+        <v>88745</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2623684577053838</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2134215704734303</v>
+        <v>0.2153623624242653</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3136505643639455</v>
+        <v>0.3158213594198437</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>196</v>
@@ -8679,19 +8679,19 @@
         <v>194821</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>168565</v>
+        <v>169124</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>218624</v>
+        <v>219120</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3191803577972874</v>
+        <v>0.3191803577972873</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2761653181595082</v>
+        <v>0.2770800083125389</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3581774648514998</v>
+        <v>0.3589899243601558</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>208283</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>188715</v>
+        <v>188817</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>226974</v>
+        <v>227846</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6323522336039973</v>
+        <v>0.6323522336039972</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5729425428761848</v>
+        <v>0.5732540332660709</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.68909755504735</v>
+        <v>0.6917475180874666</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>267</v>
@@ -8729,19 +8729,19 @@
         <v>207274</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>192864</v>
+        <v>192254</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>221028</v>
+        <v>220482</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7376315422946164</v>
+        <v>0.7376315422946161</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6863494356360552</v>
+        <v>0.6841786405801565</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7865784295265703</v>
+        <v>0.7846376375757348</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>453</v>
@@ -8750,19 +8750,19 @@
         <v>415557</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>391754</v>
+        <v>391258</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>441813</v>
+        <v>441254</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6808196422027127</v>
+        <v>0.6808196422027128</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6418225351485003</v>
+        <v>0.641010075639844</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7238346818404918</v>
+        <v>0.7229199916874611</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>75542</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>61416</v>
+        <v>60133</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>91870</v>
+        <v>90860</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2379491374710946</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1934535304299935</v>
+        <v>0.1894122018807125</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2893791937305097</v>
+        <v>0.2861987740353199</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -8875,19 +8875,19 @@
         <v>25762</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17946</v>
+        <v>17206</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36065</v>
+        <v>34601</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1486942829589682</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1035805299010797</v>
+        <v>0.09931178178863624</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2081618786365552</v>
+        <v>0.1997091855226213</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>111</v>
@@ -8896,19 +8896,19 @@
         <v>101304</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>85518</v>
+        <v>85319</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>120115</v>
+        <v>119484</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2064370080013147</v>
+        <v>0.2064370080013146</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1742683172745288</v>
+        <v>0.1738627297477128</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2447697725254296</v>
+        <v>0.2434851023456903</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>241929</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>225601</v>
+        <v>226611</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>256055</v>
+        <v>257338</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7620508625289054</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7106208062694901</v>
+        <v>0.7138012259646807</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8065464695700065</v>
+        <v>0.8105877981192877</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>181</v>
@@ -8946,19 +8946,19 @@
         <v>147493</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>137190</v>
+        <v>138654</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>155309</v>
+        <v>156049</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8513057170410319</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7918381213634446</v>
+        <v>0.8002908144773786</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8964194700989203</v>
+        <v>0.9006882182113641</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>428</v>
@@ -8967,19 +8967,19 @@
         <v>389422</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>370611</v>
+        <v>371242</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>405208</v>
+        <v>405407</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7935629919986854</v>
+        <v>0.7935629919986852</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7552302274745702</v>
+        <v>0.7565148976543096</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.825731682725471</v>
+        <v>0.8261372702522871</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>519004</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>482514</v>
+        <v>479179</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>557341</v>
+        <v>558199</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.3356092271662746</v>
+        <v>0.3356092271662747</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3120132240333217</v>
+        <v>0.3098566459576633</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3603994396211931</v>
+        <v>0.3609538465845013</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>332</v>
@@ -9092,19 +9092,19 @@
         <v>247863</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>224768</v>
+        <v>224249</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>273608</v>
+        <v>273555</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2347374130770603</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2128662304518341</v>
+        <v>0.2123740501941535</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2591200163771606</v>
+        <v>0.259068970742954</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>877</v>
@@ -9113,19 +9113,19 @@
         <v>766867</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>718917</v>
+        <v>721418</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>811423</v>
+        <v>811942</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2946803706118233</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2762550639039515</v>
+        <v>0.2772159533026136</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3118017834981893</v>
+        <v>0.3120012516190254</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>1027450</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>989113</v>
+        <v>988255</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1063940</v>
+        <v>1067275</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.6643907728337253</v>
+        <v>0.6643907728337254</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6396005603788067</v>
+        <v>0.6390461534154986</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6879867759666783</v>
+        <v>0.6901433540423367</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1120</v>
@@ -9163,19 +9163,19 @@
         <v>808051</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>782306</v>
+        <v>782359</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>831146</v>
+        <v>831665</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7652625869229397</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7408799836228397</v>
+        <v>0.7409310292570461</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7871337695481658</v>
+        <v>0.7876259498058464</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2128</v>
@@ -9184,19 +9184,19 @@
         <v>1835501</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1790945</v>
+        <v>1790426</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1883451</v>
+        <v>1880950</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7053196293881768</v>
+        <v>0.7053196293881767</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6881982165018105</v>
+        <v>0.6879987483809746</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7237449360960484</v>
+        <v>0.7227840466973867</v>
       </c>
     </row>
     <row r="30">
